--- a/automationpractice.com/src/main/java/com/qa/testdata/testdata.xlsx
+++ b/automationpractice.com/src/main/java/com/qa/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erinksh\IdeaProjects\seleniumTest\automationpractice.com\src\main\java\com\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61A4ED3-1B8C-4805-B6E1-56983709486E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BD4758-4AE0-4C58-9764-2A03BF91C81A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" xr2:uid="{CF7C0416-B754-40BC-A8D8-F7512D571880}"/>
   </bookViews>
@@ -30,9 +30,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>blouse</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>terrwer</t>
   </si>
 </sst>
 </file>
@@ -384,20 +393,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC13C311-35AE-4278-B4C2-04E04BCC1625}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/automationpractice.com/src/main/java/com/qa/testdata/testdata.xlsx
+++ b/automationpractice.com/src/main/java/com/qa/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erinksh\IdeaProjects\seleniumTest\automationpractice.com\src\main\java\com\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BD4758-4AE0-4C58-9764-2A03BF91C81A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F95C9E8-02CD-4CCE-B72A-E0D57787B1D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" xr2:uid="{CF7C0416-B754-40BC-A8D8-F7512D571880}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <t>Price</t>
   </si>
   <si>
-    <t>terrwer</t>
+    <t>$27.00</t>
   </si>
 </sst>
 </file>
@@ -77,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC13C311-35AE-4278-B4C2-04E04BCC1625}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,19 +414,12 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>